--- a/crypto_kings_schema.xlsx
+++ b/crypto_kings_schema.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jvvan\PycharmProjects\crypto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E726976B-CDF6-465D-AECF-8F5B70FC5B03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14A68638-E9B1-406A-87FB-39E58BBC5F37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" activeTab="2" xr2:uid="{95A1758E-EBC7-4B7F-AF73-0BB722B55872}"/>
   </bookViews>

--- a/crypto_kings_schema.xlsx
+++ b/crypto_kings_schema.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jvvan\PycharmProjects\crypto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14A68638-E9B1-406A-87FB-39E58BBC5F37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B21E970-8266-4C8D-82FE-18A5BA448D5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" activeTab="2" xr2:uid="{95A1758E-EBC7-4B7F-AF73-0BB722B55872}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{95A1758E-EBC7-4B7F-AF73-0BB722B55872}"/>
   </bookViews>
   <sheets>
     <sheet name="coins" sheetId="1" r:id="rId1"/>
@@ -570,7 +570,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D08F0FBC-A8B2-491F-A41C-1C7A98A5B289}">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -925,8 +925,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AEC99DD-9CC8-4923-BA18-7F4A0DEA8C20}">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
